--- a/MWS/Application/VariousDocumentOut/Doc/Excel/1-MWSIDパスワード.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/1-MWSIDパスワード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A498D07-2C0A-455A-BC95-D2EC6283B5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230C87A-28A1-4D0B-A79D-A6E3D27E9900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MWS_IDPW" sheetId="10" r:id="rId1"/>
@@ -845,19 +845,259 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -868,246 +1108,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,6 +1250,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -1313,6 +1314,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>								</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -1376,6 +1382,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -1439,6 +1446,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -1502,6 +1510,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1565,6 +1574,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1628,6 +1638,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1691,6 +1702,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1754,6 +1766,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1762,14 +1775,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1786,8 +1799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886075" y="1171575"/>
-          <a:ext cx="523875" cy="171450"/>
+          <a:off x="438150" y="1171575"/>
+          <a:ext cx="600075" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,6 +1830,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3526,7 +3540,7 @@
   <dimension ref="A59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3566,990 +3580,990 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="37"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="31" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="28" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="30"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="28"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="33"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="2" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="s">
+      <c r="T21" s="9"/>
+      <c r="U21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="2" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="10" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="12"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="46"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="49"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="39" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="2">
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="9">
         <v>4</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="12"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="46"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="18"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="49"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="12"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="46"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="15"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="18"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="49"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="27"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="67" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="15"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="58"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="18"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="49"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="64"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="69"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="69"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -4625,74 +4639,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="79" t="s">
+      <c r="Q1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -4749,624 +4763,624 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="37"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="14"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="9"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="89"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="9"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="89"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="90"/>
       <c r="C24" s="91"/>
       <c r="D24" s="92"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="30"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="28"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="9"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="89"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B27" s="90"/>
       <c r="C27" s="91"/>
       <c r="D27" s="92"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="30"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="33"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="12"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="46"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="15"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="58"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="15"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="58"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="75"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="18"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="49"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="78" t="s">
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/MWS/Application/VariousDocumentOut/Doc/Excel/1-MWSIDパスワード.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/1-MWSIDパスワード.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230C87A-28A1-4D0B-A79D-A6E3D27E9900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE383D8-0643-4642-8DF3-1B3882AF91F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MWS_IDPW" sheetId="10" r:id="rId1"/>
-    <sheet name="休止届" sheetId="17" state="hidden" r:id="rId2"/>
-    <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId2"/>
+    <sheet name="休止届" sheetId="17" state="hidden" r:id="rId3"/>
+    <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MWS_IDPW!$A$1:$K$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">解約通知書!$A$1:$AA$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">休止届!$A$1:$AA$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$CP$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">解約通知書!$A$1:$AA$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">休止届!$A$1:$AA$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>TEL</t>
     <phoneticPr fontId="1"/>
@@ -450,6 +452,199 @@
 福島県郡山市松木町2-88_x000D_
 ｲｵﾝﾀｳﾝ郡山内</t>
   </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID＆初期パスワード通知書</t>
+    <rPh sb="7" eb="9">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[MIC WEB SERVICE]は、さまざまな情報発信を行う MIC ユーザー専用サイトです。</t>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご利用いただくための 「ユーザーID」 と 「初期パスワード」 をお知らせします。</t>
+    <rPh sb="1" eb="3">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期パスワード読み</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.webservice.mic.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポート情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作や入力などの方法・手順をお困りの際は、こちらのサポート情報より製品、サービスや</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードウェアのFAQや、都道府県別のマニュアルをご確認ください。</t>
+    <rPh sb="12" eb="16">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt; ユーザーID およびパスワードについて &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID およびパスワードは弊社お客様だけが知りうる重要な情報です。このユーザーID およびパスワードを</t>
+    <rPh sb="16" eb="18">
+      <t>ヘイシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三者に開示することはできません。また第三者による不正利用の防止とお客様の利益を守るため、このユーザー</t>
+    <rPh sb="0" eb="3">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイジ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID およびパスワードはお電話でお知らせすることはできません。あらかじめご了承ください。</t>
+    <rPh sb="13" eb="15">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +827,52 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -647,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -824,6 +1065,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -838,13 +1097,70 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,18 +1179,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,152 +1290,59 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1064,59 +1377,53 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1842,6 +2149,244 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDC44BF-B78E-4795-A7DC-F8BE6691FFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="476250" y="2228850"/>
+          <a:ext cx="1314450" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769CBF3D-3B3B-4A4D-91E5-BF2F68AB7BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4800600" y="2105025"/>
+          <a:ext cx="838200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1070E68-9264-4523-B398-8E99362BE08A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533400" y="6734175"/>
+          <a:ext cx="5400675" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>243315</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99B9343-5F24-4B2B-9EF8-84EDEA901E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="0"/>
+          <a:ext cx="7082265" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2369,7 +2914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3539,8 +4084,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3559,6 +4104,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF26119B-C0F5-4C3B-8240-7B15B94EAB5A}">
+  <dimension ref="E1:CN324"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CQ85" sqref="CQ85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="94" width="0.875" style="93" customWidth="1"/>
+    <col min="95" max="16384" width="9" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" s="93" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD23" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="94"/>
+      <c r="AP23" s="94"/>
+      <c r="AQ23" s="94"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="94"/>
+      <c r="AT23" s="94"/>
+      <c r="AU23" s="94"/>
+      <c r="AV23" s="94"/>
+      <c r="AW23" s="94"/>
+      <c r="AX23" s="94"/>
+      <c r="AY23" s="94"/>
+      <c r="AZ23" s="94"/>
+      <c r="BA23" s="94"/>
+      <c r="BB23" s="94"/>
+      <c r="BC23" s="94"/>
+      <c r="BD23" s="94"/>
+      <c r="BE23" s="94"/>
+      <c r="BF23" s="94"/>
+      <c r="BG23" s="94"/>
+      <c r="BH23" s="94"/>
+      <c r="BI23" s="94"/>
+      <c r="BJ23" s="94"/>
+      <c r="BK23" s="94"/>
+      <c r="BL23" s="94"/>
+      <c r="BM23" s="94"/>
+      <c r="BN23" s="94"/>
+      <c r="BO23" s="94"/>
+      <c r="BP23" s="94"/>
+      <c r="BQ23" s="94"/>
+      <c r="BR23" s="94"/>
+      <c r="BS23" s="94"/>
+      <c r="BT23" s="94"/>
+      <c r="BU23" s="94"/>
+      <c r="BV23" s="94"/>
+      <c r="BW23" s="94"/>
+      <c r="BX23" s="94"/>
+      <c r="BY23" s="94"/>
+      <c r="BZ23" s="94"/>
+      <c r="CA23" s="94"/>
+      <c r="CB23" s="94"/>
+      <c r="CC23" s="94"/>
+      <c r="CD23" s="94"/>
+      <c r="CE23" s="94"/>
+      <c r="CF23" s="94"/>
+    </row>
+    <row r="24" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="94"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="94"/>
+      <c r="AX24" s="94"/>
+      <c r="AY24" s="94"/>
+      <c r="AZ24" s="94"/>
+      <c r="BA24" s="94"/>
+      <c r="BB24" s="94"/>
+      <c r="BC24" s="94"/>
+      <c r="BD24" s="94"/>
+      <c r="BE24" s="94"/>
+      <c r="BF24" s="94"/>
+      <c r="BG24" s="94"/>
+      <c r="BH24" s="94"/>
+      <c r="BI24" s="94"/>
+      <c r="BJ24" s="94"/>
+      <c r="BK24" s="94"/>
+      <c r="BL24" s="94"/>
+      <c r="BM24" s="94"/>
+      <c r="BN24" s="94"/>
+      <c r="BO24" s="94"/>
+      <c r="BP24" s="94"/>
+      <c r="BQ24" s="94"/>
+      <c r="BR24" s="94"/>
+      <c r="BS24" s="94"/>
+      <c r="BT24" s="94"/>
+      <c r="BU24" s="94"/>
+      <c r="BV24" s="94"/>
+      <c r="BW24" s="94"/>
+      <c r="BX24" s="94"/>
+      <c r="BY24" s="94"/>
+      <c r="BZ24" s="94"/>
+      <c r="CA24" s="94"/>
+      <c r="CB24" s="94"/>
+      <c r="CC24" s="94"/>
+      <c r="CD24" s="94"/>
+      <c r="CE24" s="94"/>
+      <c r="CF24" s="94"/>
+    </row>
+    <row r="25" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="94"/>
+      <c r="AH25" s="94"/>
+      <c r="AI25" s="94"/>
+      <c r="AJ25" s="94"/>
+      <c r="AK25" s="94"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="94"/>
+      <c r="AN25" s="94"/>
+      <c r="AO25" s="94"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="94"/>
+      <c r="AV25" s="94"/>
+      <c r="AW25" s="94"/>
+      <c r="AX25" s="94"/>
+      <c r="AY25" s="94"/>
+      <c r="AZ25" s="94"/>
+      <c r="BA25" s="94"/>
+      <c r="BB25" s="94"/>
+      <c r="BC25" s="94"/>
+      <c r="BD25" s="94"/>
+      <c r="BE25" s="94"/>
+      <c r="BF25" s="94"/>
+      <c r="BG25" s="94"/>
+      <c r="BH25" s="94"/>
+      <c r="BI25" s="94"/>
+      <c r="BJ25" s="94"/>
+      <c r="BK25" s="94"/>
+      <c r="BL25" s="94"/>
+      <c r="BM25" s="94"/>
+      <c r="BN25" s="94"/>
+      <c r="BO25" s="94"/>
+      <c r="BP25" s="94"/>
+      <c r="BQ25" s="94"/>
+      <c r="BR25" s="94"/>
+      <c r="BS25" s="94"/>
+      <c r="BT25" s="94"/>
+      <c r="BU25" s="94"/>
+      <c r="BV25" s="94"/>
+      <c r="BW25" s="94"/>
+      <c r="BX25" s="94"/>
+      <c r="BY25" s="94"/>
+      <c r="BZ25" s="94"/>
+      <c r="CA25" s="94"/>
+      <c r="CB25" s="94"/>
+      <c r="CC25" s="94"/>
+      <c r="CD25" s="94"/>
+      <c r="CE25" s="94"/>
+      <c r="CF25" s="94"/>
+    </row>
+    <row r="26" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I30" s="93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="8:84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="9:88" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="9:88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I34" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="101"/>
+      <c r="AE34" s="102"/>
+      <c r="AF34" s="102"/>
+      <c r="AG34" s="102"/>
+      <c r="AH34" s="102"/>
+      <c r="AI34" s="102"/>
+      <c r="AJ34" s="102"/>
+      <c r="AK34" s="102"/>
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="102"/>
+      <c r="AN34" s="102"/>
+      <c r="AO34" s="102"/>
+      <c r="AP34" s="102"/>
+      <c r="AQ34" s="102"/>
+      <c r="AR34" s="102"/>
+      <c r="AS34" s="102"/>
+      <c r="AT34" s="102"/>
+      <c r="AU34" s="102"/>
+      <c r="AV34" s="102"/>
+      <c r="AW34" s="102"/>
+      <c r="AX34" s="102"/>
+      <c r="AY34" s="102"/>
+      <c r="AZ34" s="102"/>
+      <c r="BA34" s="102"/>
+      <c r="BB34" s="102"/>
+      <c r="BC34" s="102"/>
+      <c r="BD34" s="102"/>
+      <c r="BE34" s="102"/>
+      <c r="BF34" s="102"/>
+      <c r="BG34" s="102"/>
+      <c r="BH34" s="102"/>
+      <c r="BI34" s="102"/>
+      <c r="BJ34" s="102"/>
+      <c r="BK34" s="102"/>
+      <c r="BL34" s="102"/>
+      <c r="BM34" s="102"/>
+      <c r="BN34" s="102"/>
+      <c r="BO34" s="102"/>
+      <c r="BP34" s="102"/>
+      <c r="BQ34" s="102"/>
+      <c r="BR34" s="102"/>
+      <c r="BS34" s="102"/>
+      <c r="BT34" s="102"/>
+      <c r="BU34" s="102"/>
+      <c r="BV34" s="102"/>
+      <c r="BW34" s="102"/>
+      <c r="BX34" s="102"/>
+      <c r="BY34" s="102"/>
+      <c r="BZ34" s="102"/>
+      <c r="CA34" s="102"/>
+      <c r="CB34" s="102"/>
+      <c r="CC34" s="102"/>
+      <c r="CD34" s="102"/>
+      <c r="CE34" s="102"/>
+      <c r="CF34" s="102"/>
+      <c r="CG34" s="102"/>
+      <c r="CH34" s="102"/>
+      <c r="CI34" s="103"/>
+      <c r="CJ34" s="95"/>
+    </row>
+    <row r="35" spans="9:88" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="95"/>
+      <c r="AG35" s="95"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="95"/>
+      <c r="AK35" s="95"/>
+      <c r="AL35" s="95"/>
+      <c r="AM35" s="95"/>
+      <c r="AN35" s="95"/>
+      <c r="AO35" s="95"/>
+      <c r="AP35" s="95"/>
+      <c r="AQ35" s="95"/>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" s="95"/>
+      <c r="AU35" s="95"/>
+      <c r="AV35" s="95"/>
+      <c r="AW35" s="95"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="95"/>
+      <c r="AZ35" s="95"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="95"/>
+      <c r="BF35" s="95"/>
+      <c r="BG35" s="95"/>
+      <c r="BH35" s="95"/>
+      <c r="BI35" s="95"/>
+      <c r="BJ35" s="95"/>
+      <c r="BK35" s="95"/>
+      <c r="BL35" s="95"/>
+      <c r="BM35" s="95"/>
+      <c r="BN35" s="95"/>
+      <c r="BO35" s="95"/>
+      <c r="BP35" s="95"/>
+      <c r="BQ35" s="95"/>
+      <c r="BR35" s="95"/>
+      <c r="BS35" s="95"/>
+      <c r="BT35" s="95"/>
+      <c r="BU35" s="95"/>
+      <c r="BV35" s="95"/>
+      <c r="BW35" s="95"/>
+      <c r="BX35" s="95"/>
+      <c r="BY35" s="95"/>
+      <c r="BZ35" s="95"/>
+      <c r="CA35" s="95"/>
+      <c r="CB35" s="95"/>
+      <c r="CC35" s="95"/>
+      <c r="CD35" s="95"/>
+      <c r="CE35" s="95"/>
+      <c r="CF35" s="95"/>
+      <c r="CG35" s="95"/>
+      <c r="CH35" s="95"/>
+      <c r="CI35" s="95"/>
+      <c r="CJ35" s="95"/>
+    </row>
+    <row r="36" spans="9:88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I36" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="102"/>
+      <c r="AF36" s="102"/>
+      <c r="AG36" s="102"/>
+      <c r="AH36" s="102"/>
+      <c r="AI36" s="102"/>
+      <c r="AJ36" s="102"/>
+      <c r="AK36" s="102"/>
+      <c r="AL36" s="102"/>
+      <c r="AM36" s="102"/>
+      <c r="AN36" s="102"/>
+      <c r="AO36" s="102"/>
+      <c r="AP36" s="102"/>
+      <c r="AQ36" s="102"/>
+      <c r="AR36" s="102"/>
+      <c r="AS36" s="102"/>
+      <c r="AT36" s="102"/>
+      <c r="AU36" s="102"/>
+      <c r="AV36" s="102"/>
+      <c r="AW36" s="102"/>
+      <c r="AX36" s="102"/>
+      <c r="AY36" s="102"/>
+      <c r="AZ36" s="102"/>
+      <c r="BA36" s="102"/>
+      <c r="BB36" s="102"/>
+      <c r="BC36" s="102"/>
+      <c r="BD36" s="102"/>
+      <c r="BE36" s="102"/>
+      <c r="BF36" s="102"/>
+      <c r="BG36" s="102"/>
+      <c r="BH36" s="102"/>
+      <c r="BI36" s="102"/>
+      <c r="BJ36" s="102"/>
+      <c r="BK36" s="102"/>
+      <c r="BL36" s="102"/>
+      <c r="BM36" s="102"/>
+      <c r="BN36" s="102"/>
+      <c r="BO36" s="102"/>
+      <c r="BP36" s="102"/>
+      <c r="BQ36" s="102"/>
+      <c r="BR36" s="102"/>
+      <c r="BS36" s="102"/>
+      <c r="BT36" s="102"/>
+      <c r="BU36" s="102"/>
+      <c r="BV36" s="102"/>
+      <c r="BW36" s="102"/>
+      <c r="BX36" s="102"/>
+      <c r="BY36" s="102"/>
+      <c r="BZ36" s="102"/>
+      <c r="CA36" s="102"/>
+      <c r="CB36" s="102"/>
+      <c r="CC36" s="102"/>
+      <c r="CD36" s="102"/>
+      <c r="CE36" s="102"/>
+      <c r="CF36" s="102"/>
+      <c r="CG36" s="102"/>
+      <c r="CH36" s="102"/>
+      <c r="CI36" s="103"/>
+    </row>
+    <row r="37" spans="9:88" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="9:88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I38" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD38" s="101"/>
+      <c r="AE38" s="102"/>
+      <c r="AF38" s="102"/>
+      <c r="AG38" s="102"/>
+      <c r="AH38" s="102"/>
+      <c r="AI38" s="102"/>
+      <c r="AJ38" s="102"/>
+      <c r="AK38" s="102"/>
+      <c r="AL38" s="102"/>
+      <c r="AM38" s="102"/>
+      <c r="AN38" s="102"/>
+      <c r="AO38" s="102"/>
+      <c r="AP38" s="102"/>
+      <c r="AQ38" s="102"/>
+      <c r="AR38" s="102"/>
+      <c r="AS38" s="102"/>
+      <c r="AT38" s="102"/>
+      <c r="AU38" s="102"/>
+      <c r="AV38" s="102"/>
+      <c r="AW38" s="102"/>
+      <c r="AX38" s="102"/>
+      <c r="AY38" s="102"/>
+      <c r="AZ38" s="102"/>
+      <c r="BA38" s="102"/>
+      <c r="BB38" s="102"/>
+      <c r="BC38" s="102"/>
+      <c r="BD38" s="102"/>
+      <c r="BE38" s="102"/>
+      <c r="BF38" s="102"/>
+      <c r="BG38" s="102"/>
+      <c r="BH38" s="102"/>
+      <c r="BI38" s="102"/>
+      <c r="BJ38" s="102"/>
+      <c r="BK38" s="102"/>
+      <c r="BL38" s="102"/>
+      <c r="BM38" s="102"/>
+      <c r="BN38" s="102"/>
+      <c r="BO38" s="102"/>
+      <c r="BP38" s="102"/>
+      <c r="BQ38" s="102"/>
+      <c r="BR38" s="102"/>
+      <c r="BS38" s="102"/>
+      <c r="BT38" s="102"/>
+      <c r="BU38" s="102"/>
+      <c r="BV38" s="102"/>
+      <c r="BW38" s="102"/>
+      <c r="BX38" s="102"/>
+      <c r="BY38" s="102"/>
+      <c r="BZ38" s="102"/>
+      <c r="CA38" s="102"/>
+      <c r="CB38" s="102"/>
+      <c r="CC38" s="102"/>
+      <c r="CD38" s="102"/>
+      <c r="CE38" s="102"/>
+      <c r="CF38" s="102"/>
+      <c r="CG38" s="102"/>
+      <c r="CH38" s="102"/>
+      <c r="CI38" s="103"/>
+    </row>
+    <row r="39" spans="9:88" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="9:88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I40" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD40" s="101"/>
+      <c r="AE40" s="102"/>
+      <c r="AF40" s="102"/>
+      <c r="AG40" s="102"/>
+      <c r="AH40" s="102"/>
+      <c r="AI40" s="102"/>
+      <c r="AJ40" s="102"/>
+      <c r="AK40" s="102"/>
+      <c r="AL40" s="102"/>
+      <c r="AM40" s="102"/>
+      <c r="AN40" s="102"/>
+      <c r="AO40" s="102"/>
+      <c r="AP40" s="102"/>
+      <c r="AQ40" s="102"/>
+      <c r="AR40" s="102"/>
+      <c r="AS40" s="102"/>
+      <c r="AT40" s="102"/>
+      <c r="AU40" s="102"/>
+      <c r="AV40" s="102"/>
+      <c r="AW40" s="102"/>
+      <c r="AX40" s="102"/>
+      <c r="AY40" s="102"/>
+      <c r="AZ40" s="102"/>
+      <c r="BA40" s="102"/>
+      <c r="BB40" s="102"/>
+      <c r="BC40" s="102"/>
+      <c r="BD40" s="102"/>
+      <c r="BE40" s="102"/>
+      <c r="BF40" s="102"/>
+      <c r="BG40" s="102"/>
+      <c r="BH40" s="102"/>
+      <c r="BI40" s="102"/>
+      <c r="BJ40" s="102"/>
+      <c r="BK40" s="102"/>
+      <c r="BL40" s="102"/>
+      <c r="BM40" s="102"/>
+      <c r="BN40" s="102"/>
+      <c r="BO40" s="102"/>
+      <c r="BP40" s="102"/>
+      <c r="BQ40" s="102"/>
+      <c r="BR40" s="102"/>
+      <c r="BS40" s="102"/>
+      <c r="BT40" s="102"/>
+      <c r="BU40" s="102"/>
+      <c r="BV40" s="102"/>
+      <c r="BW40" s="102"/>
+      <c r="BX40" s="102"/>
+      <c r="BY40" s="102"/>
+      <c r="BZ40" s="102"/>
+      <c r="CA40" s="102"/>
+      <c r="CB40" s="102"/>
+      <c r="CC40" s="102"/>
+      <c r="CD40" s="102"/>
+      <c r="CE40" s="102"/>
+      <c r="CF40" s="102"/>
+      <c r="CG40" s="102"/>
+      <c r="CH40" s="102"/>
+      <c r="CI40" s="103"/>
+    </row>
+    <row r="41" spans="9:88" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="9:88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I42" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD42" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE42" s="99"/>
+      <c r="AF42" s="99"/>
+      <c r="AG42" s="99"/>
+      <c r="AH42" s="99"/>
+      <c r="AI42" s="99"/>
+      <c r="AJ42" s="99"/>
+      <c r="AK42" s="99"/>
+      <c r="AL42" s="99"/>
+      <c r="AM42" s="99"/>
+      <c r="AN42" s="99"/>
+      <c r="AO42" s="99"/>
+      <c r="AP42" s="99"/>
+      <c r="AQ42" s="99"/>
+      <c r="AR42" s="99"/>
+      <c r="AS42" s="99"/>
+      <c r="AT42" s="99"/>
+      <c r="AU42" s="99"/>
+      <c r="AV42" s="99"/>
+      <c r="AW42" s="99"/>
+      <c r="AX42" s="99"/>
+      <c r="AY42" s="99"/>
+      <c r="AZ42" s="99"/>
+      <c r="BA42" s="99"/>
+      <c r="BB42" s="99"/>
+      <c r="BC42" s="99"/>
+      <c r="BD42" s="99"/>
+      <c r="BE42" s="99"/>
+      <c r="BF42" s="99"/>
+      <c r="BG42" s="99"/>
+      <c r="BH42" s="99"/>
+      <c r="BI42" s="99"/>
+      <c r="BJ42" s="99"/>
+      <c r="BK42" s="99"/>
+      <c r="BL42" s="99"/>
+      <c r="BM42" s="99"/>
+      <c r="BN42" s="99"/>
+      <c r="BO42" s="99"/>
+      <c r="BP42" s="99"/>
+      <c r="BQ42" s="99"/>
+      <c r="BR42" s="99"/>
+      <c r="BS42" s="99"/>
+      <c r="BT42" s="99"/>
+      <c r="BU42" s="99"/>
+      <c r="BV42" s="99"/>
+      <c r="BW42" s="99"/>
+      <c r="BX42" s="99"/>
+      <c r="BY42" s="99"/>
+      <c r="BZ42" s="99"/>
+      <c r="CA42" s="99"/>
+      <c r="CB42" s="99"/>
+      <c r="CC42" s="99"/>
+      <c r="CD42" s="99"/>
+      <c r="CE42" s="99"/>
+      <c r="CF42" s="99"/>
+      <c r="CG42" s="99"/>
+      <c r="CH42" s="99"/>
+      <c r="CI42" s="100"/>
+    </row>
+    <row r="43" spans="9:88" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="104"/>
+      <c r="AG43" s="104"/>
+      <c r="AH43" s="104"/>
+      <c r="AI43" s="104"/>
+      <c r="AJ43" s="104"/>
+      <c r="AK43" s="104"/>
+      <c r="AL43" s="104"/>
+      <c r="AM43" s="104"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
+      <c r="AP43" s="104"/>
+      <c r="AQ43" s="104"/>
+      <c r="AR43" s="104"/>
+      <c r="AS43" s="104"/>
+      <c r="AT43" s="104"/>
+      <c r="AU43" s="104"/>
+      <c r="AV43" s="104"/>
+      <c r="AW43" s="104"/>
+      <c r="AX43" s="104"/>
+      <c r="AY43" s="104"/>
+      <c r="AZ43" s="104"/>
+      <c r="BA43" s="104"/>
+      <c r="BB43" s="104"/>
+      <c r="BC43" s="104"/>
+      <c r="BD43" s="104"/>
+      <c r="BE43" s="104"/>
+      <c r="BF43" s="104"/>
+      <c r="BG43" s="104"/>
+      <c r="BH43" s="104"/>
+      <c r="BI43" s="104"/>
+      <c r="BJ43" s="104"/>
+      <c r="BK43" s="104"/>
+      <c r="BL43" s="104"/>
+      <c r="BM43" s="104"/>
+      <c r="BN43" s="104"/>
+      <c r="BO43" s="104"/>
+      <c r="BP43" s="104"/>
+      <c r="BQ43" s="104"/>
+      <c r="BR43" s="104"/>
+      <c r="BS43" s="104"/>
+      <c r="BT43" s="104"/>
+      <c r="BU43" s="104"/>
+      <c r="BV43" s="104"/>
+      <c r="BW43" s="104"/>
+      <c r="BX43" s="104"/>
+      <c r="BY43" s="104"/>
+      <c r="BZ43" s="104"/>
+      <c r="CA43" s="104"/>
+      <c r="CB43" s="104"/>
+      <c r="CC43" s="104"/>
+      <c r="CD43" s="104"/>
+      <c r="CE43" s="104"/>
+      <c r="CF43" s="104"/>
+      <c r="CG43" s="104"/>
+      <c r="CH43" s="104"/>
+      <c r="CI43" s="104"/>
+    </row>
+    <row r="44" spans="9:88" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I44" s="105"/>
+    </row>
+    <row r="45" spans="9:88" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I45" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="107"/>
+      <c r="V45" s="107"/>
+      <c r="W45" s="107"/>
+      <c r="X45" s="107"/>
+      <c r="Y45" s="107"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="107"/>
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="107"/>
+      <c r="AF45" s="106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="9:88" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="107"/>
+      <c r="V46" s="107"/>
+      <c r="W46" s="107"/>
+      <c r="X46" s="107"/>
+      <c r="Y46" s="107"/>
+      <c r="Z46" s="107"/>
+      <c r="AA46" s="107"/>
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="107"/>
+    </row>
+    <row r="47" spans="9:88" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="107"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="107"/>
+      <c r="X47" s="107"/>
+      <c r="Y47" s="107"/>
+      <c r="Z47" s="107"/>
+      <c r="AA47" s="107"/>
+      <c r="AB47" s="107"/>
+      <c r="AC47" s="107"/>
+      <c r="AF47" s="106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="9:88" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="5:92" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="108"/>
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="108"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="108"/>
+      <c r="Q68" s="108"/>
+      <c r="R68" s="108"/>
+      <c r="S68" s="108"/>
+      <c r="T68" s="108"/>
+      <c r="U68" s="108"/>
+      <c r="V68" s="108"/>
+      <c r="W68" s="108"/>
+      <c r="X68" s="108"/>
+      <c r="Y68" s="108"/>
+      <c r="Z68" s="108"/>
+      <c r="AA68" s="108"/>
+      <c r="AB68" s="108"/>
+      <c r="AC68" s="108"/>
+      <c r="AD68" s="108"/>
+      <c r="AE68" s="108"/>
+      <c r="AF68" s="108"/>
+      <c r="AG68" s="108"/>
+      <c r="AH68" s="108"/>
+      <c r="AI68" s="108"/>
+      <c r="AJ68" s="108"/>
+      <c r="AK68" s="108"/>
+      <c r="AL68" s="108"/>
+      <c r="AM68" s="108"/>
+      <c r="AN68" s="108"/>
+      <c r="AO68" s="108"/>
+      <c r="AP68" s="108"/>
+      <c r="AQ68" s="108"/>
+      <c r="AR68" s="108"/>
+      <c r="AS68" s="108"/>
+      <c r="AT68" s="108"/>
+      <c r="AU68" s="108"/>
+      <c r="AV68" s="108"/>
+      <c r="AW68" s="108"/>
+      <c r="AX68" s="108"/>
+      <c r="AY68" s="108"/>
+      <c r="AZ68" s="108"/>
+      <c r="BA68" s="108"/>
+      <c r="BB68" s="108"/>
+      <c r="BC68" s="108"/>
+      <c r="BD68" s="108"/>
+      <c r="BE68" s="108"/>
+      <c r="BF68" s="108"/>
+      <c r="BG68" s="108"/>
+      <c r="BH68" s="108"/>
+      <c r="BI68" s="108"/>
+      <c r="BJ68" s="108"/>
+      <c r="BK68" s="108"/>
+      <c r="BL68" s="108"/>
+      <c r="BM68" s="108"/>
+      <c r="BN68" s="108"/>
+      <c r="BO68" s="108"/>
+      <c r="BP68" s="108"/>
+      <c r="BQ68" s="108"/>
+      <c r="BR68" s="108"/>
+      <c r="BS68" s="108"/>
+      <c r="BT68" s="108"/>
+      <c r="BU68" s="108"/>
+      <c r="BV68" s="108"/>
+      <c r="BW68" s="108"/>
+      <c r="BX68" s="108"/>
+      <c r="BY68" s="108"/>
+      <c r="BZ68" s="108"/>
+      <c r="CA68" s="108"/>
+      <c r="CB68" s="108"/>
+      <c r="CC68" s="108"/>
+      <c r="CD68" s="108"/>
+      <c r="CE68" s="108"/>
+      <c r="CF68" s="108"/>
+      <c r="CG68" s="108"/>
+      <c r="CH68" s="108"/>
+      <c r="CI68" s="108"/>
+      <c r="CJ68" s="108"/>
+      <c r="CK68" s="108"/>
+      <c r="CL68" s="108"/>
+      <c r="CM68" s="108"/>
+      <c r="CN68" s="108"/>
+    </row>
+    <row r="69" spans="5:92" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G70" s="106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="5:92" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G72" s="106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="5:92" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G74" s="106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="5:92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AD42:CI42"/>
+    <mergeCell ref="I45:AC47"/>
+    <mergeCell ref="AD23:CF25"/>
+    <mergeCell ref="AD40:CI40"/>
+    <mergeCell ref="AD38:CI38"/>
+    <mergeCell ref="AD36:CI36"/>
+    <mergeCell ref="AD34:CI34"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:Z49"/>
@@ -3580,993 +5295,1025 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9" t="s">
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="63"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="7"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="19"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="55"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="7"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="26" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="28"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="58"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="19"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="55"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="35" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="9" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9" t="s">
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="9" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9" t="s">
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="44" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="46"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="14"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="49"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="20"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="51" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="9">
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="2">
         <v>4</v>
       </c>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="44" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="46"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="14"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="49"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="20"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="46"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="14"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="49"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="20"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="7"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="26"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="59" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="58"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="17"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="49"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="20"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="61"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="61"/>
-      <c r="Y41" s="61"/>
-      <c r="Z41" s="61"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="63"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="63"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="63"/>
-      <c r="Y43" s="63"/>
-      <c r="Z43" s="63"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="60" t="s">
+      <c r="M46" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="B10:Z11"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:Z17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:Z20"/>
+    <mergeCell ref="B21:D24"/>
+    <mergeCell ref="E21:R24"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:Z22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:Z24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:Z26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:M28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:Z37"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:Z32"/>
     <mergeCell ref="M47:Q49"/>
     <mergeCell ref="R47:T49"/>
     <mergeCell ref="U47:W49"/>
@@ -4583,38 +6330,6 @@
     <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="B42:Z43"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:Z37"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:Z32"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="Q25:Z26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:M28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="B21:D24"/>
-    <mergeCell ref="E21:R24"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:Z22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:Z24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:Z17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:Z20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="B10:Z11"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4624,7 +6339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B1:Z53"/>
@@ -4639,74 +6354,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -4763,627 +6478,639 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9" t="s">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="14"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="63"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="87" t="s">
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="89"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="78"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="19"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="87" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="89"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="78"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="28"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="58"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="19"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="55"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="87" t="s">
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="89"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="78"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="28"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="58"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="19"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="55"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="46"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="14"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="58"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="17"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="58"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="17"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="49"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="20"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="74" t="s">
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="60" t="s">
+      <c r="M50" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B30:D33"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:Z37"/>
+    <mergeCell ref="M51:Q53"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="U51:W53"/>
+    <mergeCell ref="X51:Z53"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E30:Z33"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="B29:Z29"/>
     <mergeCell ref="B12:Z13"/>
@@ -5397,18 +7124,6 @@
     <mergeCell ref="B26:D28"/>
     <mergeCell ref="E26:Z28"/>
     <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="B30:D33"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:Z37"/>
-    <mergeCell ref="M51:Q53"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="U51:W53"/>
-    <mergeCell ref="X51:Z53"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E30:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
